--- a/Test Data/Policy Numbers.xlsx
+++ b/Test Data/Policy Numbers.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Quote Number</t>
   </si>
@@ -97,6 +97,12 @@
   </si>
   <si>
     <t>S-2021685413</t>
+  </si>
+  <si>
+    <t>S-2021224399</t>
+  </si>
+  <si>
+    <t>S-2021231695</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A90571-3DD0-4030-8627-9B8A4686E9FF}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -585,6 +591,16 @@
         <v>20</v>
       </c>
     </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Data/Policy Numbers.xlsx
+++ b/Test Data/Policy Numbers.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>Quote Number</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>S-2021231695</t>
+  </si>
+  <si>
+    <t>S-2021208523</t>
+  </si>
+  <si>
+    <t>S-2021413131</t>
+  </si>
+  <si>
+    <t>S-2021346255</t>
+  </si>
+  <si>
+    <t>S-2021418007</t>
   </si>
 </sst>
 </file>
@@ -470,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A90571-3DD0-4030-8627-9B8A4686E9FF}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -601,6 +613,26 @@
         <v>22</v>
       </c>
     </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Test Data/Policy Numbers.xlsx
+++ b/Test Data/Policy Numbers.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>Quote Number</t>
   </si>
@@ -115,6 +115,54 @@
   </si>
   <si>
     <t>S-2021418007</t>
+  </si>
+  <si>
+    <t>S-2021566152</t>
+  </si>
+  <si>
+    <t>S-202191694</t>
+  </si>
+  <si>
+    <t>S-2021578905</t>
+  </si>
+  <si>
+    <t>S-2021905948</t>
+  </si>
+  <si>
+    <t>S-2021464411</t>
+  </si>
+  <si>
+    <t>S-2021632681</t>
+  </si>
+  <si>
+    <t>S-2021897308</t>
+  </si>
+  <si>
+    <t>S-2021462804</t>
+  </si>
+  <si>
+    <t>S-2021215360</t>
+  </si>
+  <si>
+    <t>S-202181321</t>
+  </si>
+  <si>
+    <t>S-2021224053</t>
+  </si>
+  <si>
+    <t>S-2021585403</t>
+  </si>
+  <si>
+    <t>S-2021838439</t>
+  </si>
+  <si>
+    <t>S-2021613471</t>
+  </si>
+  <si>
+    <t>S-2021452415</t>
+  </si>
+  <si>
+    <t>S-2021471410</t>
   </si>
 </sst>
 </file>
@@ -482,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A90571-3DD0-4030-8627-9B8A4686E9FF}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -633,6 +681,86 @@
         <v>26</v>
       </c>
     </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
